--- a/data/traits/floweringtimes.xlsx
+++ b/data/traits/floweringtimes.xlsx
@@ -17,7 +17,7 @@
     <sheet name="completeSppList" sheetId="3" r:id="rId3"/>
     <sheet name="from_RF_trait_data2c" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -15619,7 +15619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
